--- a/platform/manager-base/src/main/resources/download/atmosphere.xlsx
+++ b/platform/manager-base/src/main/resources/download/atmosphere.xlsx
@@ -1,44 +1,336 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yye/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069CA970-10DC-0649-AEA4-2C8937796C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="1460" yWindow="640" windowWidth="27340" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>15800951450@126.com</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EDDB5FA-1038-1444-8172-A5DEDC10057D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="34"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填，单元格必须是文本类型，时间格式如下：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="34"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2021-11-11 00:00:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F21FD30C-2046-9943-B0B6-A26ED68662C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>必填，单元格必须是文本类型，时间格式如下：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2021-11-11 00:00:00
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3700730A-017B-7A40-A757-8211C9E8B139}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>必填，积分氛围或通用氛围，类型不同，需维护的元素不同</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{27FA1E1B-7081-9143-B16D-94F6ED81DBFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>必填，商城</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SKU</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EA03B39-AFFE-354D-83F8-E4A428C1B242}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>非必填，按需，配置氛围图片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3417AB7E-DDF5-2F43-A181-916477EA6D14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>当氛围</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>积分氛围，可配置左一、左二、右一、右二四个氛围文字，按单元格一列一个氛围文字</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>当氛围</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>通用，可配置第一行、第二行两个氛围文字，按单元格一列一个氛围文字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>*氛围结束时间（年月日时分秒）</t>
+  </si>
+  <si>
+    <t>*类型</t>
+  </si>
+  <si>
+    <t>*SKU编号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>氛围图片地址</t>
+  </si>
+  <si>
+    <t>元素1</t>
+  </si>
+  <si>
+    <t>元素2</t>
+  </si>
+  <si>
+    <t>元素3</t>
+  </si>
+  <si>
+    <t>元素4</t>
+  </si>
+  <si>
+    <t>积分氛围</t>
+  </si>
+  <si>
+    <t>左侧第一行文字</t>
+  </si>
+  <si>
+    <t>左侧第二行文字</t>
+  </si>
+  <si>
+    <t>右侧第一行文字</t>
+  </si>
+  <si>
+    <t>右侧第二行文字</t>
+  </si>
+  <si>
+    <t>通用氛围</t>
+  </si>
+  <si>
+    <t>第一行文字</t>
+  </si>
+  <si>
+    <t>第二行文字</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF54A45"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氛围开始时间（年月日时分秒）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-11 00:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,19 +346,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF54A45"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="34"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
@@ -93,24 +421,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,81 +749,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="2" width="14" style="3"/>
+    <col min="4" max="5" width="14" style="3"/>
+    <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
+    <col min="7" max="10" width="14" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
-        <v>*氛围开始时间（年月日时分秒）</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>*氛围结束时间（年月日时分秒）</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>*类型</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>*SKU编号</v>
-      </c>
-      <c r="E1" t="str">
-        <v>商品名称</v>
-      </c>
-      <c r="F1" t="str">
-        <v>氛围图片地址</v>
-      </c>
-      <c r="G1" t="str">
-        <v>元素1</v>
-      </c>
-      <c r="H1" t="str">
-        <v>元素2</v>
-      </c>
-      <c r="I1" t="str">
-        <v>元素3</v>
-      </c>
-      <c r="J1" t="str">
-        <v>元素4</v>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="C2" t="str">
-        <v>积分氛围</v>
-      </c>
-      <c r="G2" t="str">
-        <v>左侧第一行文字</v>
-      </c>
-      <c r="H2" t="str">
-        <v>左侧第二行文字</v>
-      </c>
-      <c r="I2" t="str">
-        <v>右侧第一行文字</v>
-      </c>
-      <c r="J2" t="str">
-        <v>右侧第二行文字</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" t="str">
-        <v>通用氛围</v>
-      </c>
-      <c r="G3" t="str">
-        <v>第一行文字</v>
-      </c>
-      <c r="H3" t="str">
-        <v>第二行文字</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C2:C3" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"积分氛围,通用氛围"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/platform/manager-base/src/main/resources/download/atmosphere.xlsx
+++ b/platform/manager-base/src/main/resources/download/atmosphere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yye/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069CA970-10DC-0649-AEA4-2C8937796C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43547A1C-6C7A-C74C-97DD-37B991793309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="640" windowWidth="27340" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,6 +146,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2E390511-B76D-E545-997E-B359CAA7F192}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>必填，同图书名称</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EA03B39-AFFE-354D-83F8-E4A428C1B242}">
       <text>
         <r>
@@ -189,7 +211,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>积分氛围，可配置左一、左二、右一、右二四个氛围文字，按单元格一列一个氛围文字</t>
+          <t>积分氛围，可配置左一（白色）、左二（白色）、右一（红色）、右二（红色）四个氛围文字，按单元格一列一个氛围文字</t>
         </r>
         <r>
           <rPr>
@@ -230,7 +252,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>通用，可配置第一行、第二行两个氛围文字，按单元格一列一个氛围文字</t>
+          <t>通用，可配置第一行、第二行两个氛围文字均为红色，按单元格一列一个氛围文字</t>
         </r>
         <r>
           <rPr>
@@ -258,9 +280,6 @@
   </si>
   <si>
     <t>*SKU编号</t>
-  </si>
-  <si>
-    <t>商品名称</t>
   </si>
   <si>
     <t>氛围图片地址</t>
@@ -321,12 +340,16 @@
     <t>2021-11-11 00:00:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>*商品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -387,6 +410,13 @@
       <name val="Microsoft YaHei UI"/>
       <family val="34"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +464,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +786,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -766,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -777,63 +810,63 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
